--- a/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/vf6.xlsx
+++ b/frontend-cemos/public/assets/content/planejamento/3-md-30-m-01/script/vf6.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,32 +478,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pág 41</t>
+          <t>Pág 61</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Cap. 6 - Disposições Finais</t>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>É desejável que os processos de Desmobilização sejam conduzidos pelos mesmos órgãos encarregados da Mobilização.</t>
+          <t>O COMAE é um Comando Operacional Conjunto ativado permanentemente, com sede no Distrito Federal e é o órgão central do SISDABRA.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Por questões de auditoria e isenção, é vedado que os processos de Desmobilização sejam conduzidos pelos mesmos órgãos encarregados da Mobilização.</t>
+          <t>O COMAE é um comando temporário, ativado apenas em situações de crise ou guerra, com sede rotativa entre as Forças Singulares.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Conforme o **item 6.2.1**, é desejável que os processos de Desmobilização sejam conduzidos pelos mesmos órgãos encarregados da Mobilização.</t>
+          <t>Conforme o **item 6.2.1**, o COMAE é um Comando Operacional Conjunto, ativado permanentemente, com sede no DF e órgão central do SISDABRA.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
@@ -512,32 +512,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pág 41</t>
+          <t>Pág 61</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Cap. 6 - Disposições Finais</t>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>O Estado-Maior Conjunto das Forças Armadas (EMCFA), por meio da CHELOG, planejará exercícios de mobilização para treinar a estrutura de elaboração dos planos.</t>
+          <t>Os órgãos setoriais ficam sujeitos à orientação normativa do órgão central do SISDABRA na defesa aeroespacial, mantendo a subordinação administrativa original.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>O planejamento de exercícios de mobilização é de competência exclusiva dos Comandos de Força, sem participação da CHELOG ou do EMCFA.</t>
+          <t>Os órgãos setoriais do SISDABRA passam à subordinação administrativa e logística integral do COMAE, rompendo o vínculo com suas Forças de origem.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Segundo o **item 6.2.3**, o EMCFA, por meio da CHELOG, planejará exercícios de mobilização com o objetivo de treinar e capacitar a estrutura.</t>
+          <t>Segundo o **item 6.2.4**, os órgãos ficam sujeitos à orientação normativa, sem prejuízo da subordinação administrativa a que estejam obrigados.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
@@ -546,32 +546,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pág 41</t>
+          <t>Pág 61</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Cap. 6 - Disposições Finais</t>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Os Comandos das Forças Singulares incluirão o EMCFA como destinatário nas listas de distribuição de publicações sobre mobilização.</t>
+          <t>A responsabilidade pelo controle operacional dos meios designados para constituir o SISDABRA é do seu órgão central, o COMAE.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Os Comandos das Forças Singulares não devem incluir o EMCFA nas listas de distribuição, restringindo o acesso às publicações ao âmbito interno da Força.</t>
+          <t>O controle operacional dos meios do SISDABRA permanece sob responsabilidade exclusiva dos comandantes de distrito naval ou região militar.</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>O texto do **item 6.3.3** determina que os Comandos das FS incluirão também o EMCFA como destinatário nas respectivas listas de distribuição.</t>
+          <t>O texto do **item 6.2.3** define que o controle operacional dos meios designados é de responsabilidade do órgão central.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -580,32 +580,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág 62</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cap. 6 - Disposições Finais</t>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Os casos omissos e as propostas de aprimoramento da publicação deverão ser encaminhados para decisão do Chefe do Estado-Maior Conjunto das Forças Armadas.</t>
+          <t>O COMAE subordina-se ao Comandante Supremo em conflito e ao Comandante da Aeronáutica em tempo de paz, em ambas as situações via Ministério da Defesa.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Os casos omissos neste manual devem ser resolvidos discricionariamente pelo Comandante de cada Força Singular, sem necessidade de encaminhamento ao EMCFA.</t>
+          <t>O COMAE reporta-se sempre diretamente ao Presidente da República, sem a intermediação do Ministério da Defesa, tanto na paz quanto na guerra.</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>De acordo com o **item 6.4.1**, os casos omissos e propostas de aprimoramento deverão ser encaminhados para decisão do Chefe do EMCFA.</t>
+          <t>Conforme o **item 6.2.6.2**, a subordinação é ao Comandante Supremo (conflito) ou Comandante da Aeronáutica (paz), via MD.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -614,32 +614,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág 62</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Cap. 6 - Disposições Finais</t>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>O manual poderá sofrer revisões em virtude da aprovação das normas do Planejamento Baseado em Capacidades (PBC) e do Plano de Articulação e de Equipamento de Defesa (PAED).</t>
+          <t>A ação de comando do COMAE sobre os elementos do SISDABRA baseia-se no controle operacional, excluindo a autoridade logística e administrativa.</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>O manual é um documento estático e não sujeito a revisões decorrentes de novos planos como o PAED ou normas como o PBC.</t>
+          <t>A autoridade do COMAE sobre os meios do SISDABRA é absoluta, englobando aspectos logísticos, disciplinares e administrativos.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Conforme o **item 6.4.2**, o manual poderá sofrer revisões em virtude da aprovação das normas do PBC e do PAED.</t>
+          <t>Segundo o **item 6.2.7**, a ação se faz mediante controle operacional, excluindo a autoridade logística e administrativa.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -648,36 +648,138 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MD-41-M-03</t>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pág 42</t>
+          <t>Pág 62</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Cap. 6 - Disposições Finais</t>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>O Anexo V do manual apresenta o modelo destinado às Listas de Carências.</t>
+          <t>Os integrantes da Defesa Aeroespacial vivem em estado de guerra, devendo sua estrutura funcionar integralmente mesmo em situação de normalidade.</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>O Anexo V do manual apresenta o modelo destinado ao Plano Setorial de Mobilização Militar.</t>
+          <t>A estrutura de Defesa Aeroespacial opera em regime administrativo reduzido na normalidade, ativando seus sistemas de combate apenas após declaração de guerra.</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Segundo a lista de **ANEXOS da página 42**, o Anexo V refere-se ao Modelo de Listas de Carências (o Plano Setorial é o Anexo III).</t>
+          <t>O texto do **item 6.2.8** afirma que esses integrantes vivem em estado de guerra e a estrutura deve funcionar integralmente na normalidade.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pág 63</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>O Comandante do COMAE deve ser um Oficial-General do último posto do quadro de oficiais aviadores da Força Aérea Brasileira.</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>O comando do COMAE é exercido em sistema de rodízio entre Oficiais-Generais de quatro estrelas da Marinha, do Exército e da Aeronáutica.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Conforme o **item 6.3.2**, o Comandante é um Oficial-General do último posto do quadro de oficiais aviadores da FAB.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pág 63</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>O Estado-Maior Conjunto do COMAE é integrado por militares das Forças Singulares e destina-se ao assessoramento em planejamento, coordenação e controle.</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>O Estado-Maior do COMAE é composto exclusivamente por oficiais da Força Aérea, visando manter a especialização técnica no poder aéreo.</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Segundo o **item 6.3.3**, o Estado-Maior Conjunto é integrado por militares das Forças Singulares.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Portaria Normativa nº 84/GM-MD 1º Vol</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pág 63</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Cap. VI - Comando de Operações AeroEspaciais</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Compete ao COMAE elaborar e fazer cumprir o Plano de Defesa Aeroespacial Brasileiro (PLANDABRA), com participação do EB e da MB quando for o caso.</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>O PLANDABRA é elaborado exclusivamente pelo Ministério da Defesa, cabendo ao COMAE apenas a sua execução tática.</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>De acordo com o **item 6.4, alínea 'c'**, é atribuição do COMAE elaborar (com participação do EB/MB quando for o caso) e fazer cumprir o PLANDABRA.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
